--- a/notebook/provsvar_tabel.xlsx
+++ b/notebook/provsvar_tabel.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -542,11 +548,11 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>8201113167</v>
+        <v>8201113194</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9-12-2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -555,7 +561,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
@@ -568,7 +574,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -581,7 +587,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
@@ -594,7 +600,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
@@ -607,29 +613,29 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>GRON</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>GRON</t>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>RÖD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>8201113170</v>
+        <v>8201113197</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8-12-2021</t>
+          <t>29/11/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -638,7 +644,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
@@ -647,11 +653,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T3, fritt, P-</t>
+          <t>T3, P-</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>0.87</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
@@ -664,11 +670,11 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>GRON</t>
+        <v>6.4</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -677,7 +683,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
@@ -690,11 +696,11 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>GUL</t>
+        <v>0.48</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
         </is>
       </c>
       <c r="S3" s="2" t="inlineStr">
@@ -705,14 +711,14 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>8201113173</v>
+        <v>8201113206</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7-12-2021</t>
+          <t>26/11/2021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -721,7 +727,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -730,11 +736,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T3, fritt, P-</t>
+          <t>T3, P-</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
@@ -760,7 +766,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
@@ -773,7 +779,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>

--- a/notebook/provsvar_tabel.xlsx
+++ b/notebook/provsvar_tabel.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +792,3077 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8201113128</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22/12/2021</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8201113176</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22/12/2021</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8201113218</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22/11/2021</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8201113221</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21/11/2021</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8201113212</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20/11/2021</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8201113215</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20/11/2021</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8201113224</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20/11/2021</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8201113209</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20/11/2021</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8201113227</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19/11/2021</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8201113140</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18/12/2021</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8201113230</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18/11/2021</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8201113143</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17/12/2021</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8201113233</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17/11/2021</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8201113146</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16/12/2021</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8201113149</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15/12/2021</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8201113131</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15/12/2021</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8201113152</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14/12/2021</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8201113134</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14/12/2021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8201113155</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13/12/2021</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8201113137</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13/12/2021</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8201113239</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>13/11/2021</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8201113236</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13/11/2021</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8201113242</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13/11/2021</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8201113245</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13/11/2021</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O28" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8201113158</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12/12/2021</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8201113161</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11/12/2021</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8201113167</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>09/12/2021</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8201113170</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08/12/2021</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R32" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8201113173</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>07/12/2021</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8201113179</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>05/12/2021</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8201113182</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>04/12/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8201113185</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>03/12/2021</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8201113203</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>02/12/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8201113200</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>02/12/2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8201113164</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>02/12/2021</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8201113188</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>02/12/2021</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>19</v>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>GUL</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>T3, fritt, P-</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8201113191</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>T4, fritt, P-</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>T3, P-</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>TSH, P-</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ASAT, P-</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>ALAT, P-</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>GRON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
